--- a/OverallTrendingSearches2.xlsx
+++ b/OverallTrendingSearches2.xlsx
@@ -39,6 +39,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-19" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-20" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-21" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-22" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17325,7 +17326,7 @@
         </is>
       </c>
       <c r="B2" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="3">
@@ -17335,7 +17336,7 @@
         </is>
       </c>
       <c r="B3" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="4">
@@ -17345,7 +17346,7 @@
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="5">
@@ -17355,7 +17356,7 @@
         </is>
       </c>
       <c r="B5" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="6">
@@ -17365,7 +17366,7 @@
         </is>
       </c>
       <c r="B6" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="7">
@@ -17375,7 +17376,7 @@
         </is>
       </c>
       <c r="B7" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="8">
@@ -17385,7 +17386,7 @@
         </is>
       </c>
       <c r="B8" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="9">
@@ -17395,7 +17396,7 @@
         </is>
       </c>
       <c r="B9" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="10">
@@ -17405,7 +17406,7 @@
         </is>
       </c>
       <c r="B10" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="11">
@@ -17415,7 +17416,7 @@
         </is>
       </c>
       <c r="B11" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="12">
@@ -17425,7 +17426,7 @@
         </is>
       </c>
       <c r="B12" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="13">
@@ -17435,7 +17436,7 @@
         </is>
       </c>
       <c r="B13" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="14">
@@ -17445,7 +17446,7 @@
         </is>
       </c>
       <c r="B14" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="15">
@@ -17455,7 +17456,7 @@
         </is>
       </c>
       <c r="B15" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="16">
@@ -17465,7 +17466,7 @@
         </is>
       </c>
       <c r="B16" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="17">
@@ -17475,7 +17476,7 @@
         </is>
       </c>
       <c r="B17" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="18">
@@ -17485,7 +17486,7 @@
         </is>
       </c>
       <c r="B18" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="19">
@@ -17495,7 +17496,7 @@
         </is>
       </c>
       <c r="B19" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="20">
@@ -17505,7 +17506,7 @@
         </is>
       </c>
       <c r="B20" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
       </c>
     </row>
     <row r="21">
@@ -17515,7 +17516,238 @@
         </is>
       </c>
       <c r="B21" s="11" t="n">
-        <v>45281.38546148058</v>
+        <v>45281.38546148148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Joshua Tree</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Simone Biles</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rams</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pistons</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iodine</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Yoshinobu Yamamoto</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vin Diesel</t>
+        </is>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>President Biden</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Silicon</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Zac Efron Iron Claw</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Clippers</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Syracuse football</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rudy Giuliani</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Alavés - Real Madrid</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dunki</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nuggets</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Salaar</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>45282.38546305455</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kentucky basketball</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>45282.38546305455</v>
       </c>
     </row>
   </sheetData>

--- a/OverallTrendingSearches2.xlsx
+++ b/OverallTrendingSearches2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4065" yWindow="-16860" windowWidth="28800" windowHeight="15210" tabRatio="600" firstSheet="21" activeTab="30" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6225" yWindow="3870" windowWidth="28800" windowHeight="15210" tabRatio="600" firstSheet="27" activeTab="36" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-10-23" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,6 +40,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-20" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-21" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-22" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-23" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-24" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-25" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-26" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -50,10 +54,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -101,6 +105,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -112,12 +121,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -245,8 +269,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16779,7 +16805,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -17094,7 +17120,7 @@
           <t>Chelsea FC</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17104,7 +17130,7 @@
           <t>Trump</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17114,7 +17140,7 @@
           <t>Ja Morant</t>
         </is>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17124,7 +17150,7 @@
           <t>Who won The Voice 2023</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17134,7 +17160,7 @@
           <t>Philadelphia Eagles</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17144,7 +17170,7 @@
           <t>Chelsea vs Newcastle</t>
         </is>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17154,7 +17180,7 @@
           <t>Percy Jackson</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17164,7 +17190,7 @@
           <t>Minnesota flag</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17174,7 +17200,7 @@
           <t>Man City</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17184,7 +17210,7 @@
           <t>Celtics vs Warriors</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17194,7 +17220,7 @@
           <t>Bucks</t>
         </is>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17204,7 +17230,7 @@
           <t>UTSA football</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17214,7 +17240,7 @@
           <t>Carabao Cup</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17224,7 +17250,7 @@
           <t>Bruins</t>
         </is>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17234,7 +17260,7 @@
           <t>Clarence Thomas</t>
         </is>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17244,7 +17270,7 @@
           <t>Milwaukee Bucks</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17254,7 +17280,7 @@
           <t>Apple Watch Series 9</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17264,7 +17290,7 @@
           <t>Air fryers recalled</t>
         </is>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17274,7 +17300,7 @@
           <t>Reba McEntire</t>
         </is>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17284,7 +17310,7 @@
           <t>Giannis Antetokounmpo</t>
         </is>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="2" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17306,6 +17332,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="inlineStr">
@@ -17325,7 +17355,7 @@
           <t>Winter solstice 2023</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17335,7 +17365,7 @@
           <t>Leonard Bernstein</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17345,7 +17375,7 @@
           <t>John Schneider</t>
         </is>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17355,7 +17385,7 @@
           <t>Celtics</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17365,7 +17395,7 @@
           <t>Timberwolves</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17375,7 +17405,7 @@
           <t>Survivor finale</t>
         </is>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17385,7 +17415,7 @@
           <t>Duke basketball</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17395,7 +17425,7 @@
           <t>UNC basketball</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17405,7 +17435,7 @@
           <t>Bulls</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17415,7 +17445,7 @@
           <t>Ryan Gosling Ken Barbie</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17425,7 +17455,7 @@
           <t>Action News' helicopter crashes</t>
         </is>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17435,7 +17465,7 @@
           <t>Jayson Tatum</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17445,7 +17475,7 @@
           <t>Taraji P. Henson</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17455,7 +17485,7 @@
           <t>Masked Singer</t>
         </is>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17465,7 +17495,7 @@
           <t>Chicago Bulls</t>
         </is>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17475,7 +17505,7 @@
           <t>South Park</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17485,7 +17515,7 @@
           <t>Sacramento Kings</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17495,7 +17525,7 @@
           <t>Greta Gerwig</t>
         </is>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17505,7 +17535,7 @@
           <t>Trump</t>
         </is>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17515,7 +17545,7 @@
           <t>Ja Morant</t>
         </is>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="2" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -17533,18 +17563,958 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Joshua Tree</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Simone Biles</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rams</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pistons</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Iodine</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Yoshinobu Yamamoto</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vin Diesel</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>President Biden</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Silicon</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Zac Efron Iron Claw</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Clippers</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Syracuse football</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rudy Giuliani</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Alavés - Real Madrid</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dunki</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nuggets</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Salaar</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Kentucky basketball</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>West Ham vs Man United</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ryan Minor</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Man City vs Fluminense</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Warriors</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Simone Biles</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UCF football</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Joshua Tree</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Queen Elizabeth II</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jordan Poole</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Elijah McClain</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Miami HEAT</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Grizzlies</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Earthquake</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Charlie Sheen</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Red Wings</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rams</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45283.38545872685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Lakers</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UConn basketball</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Laura Lynch</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bills</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Deontay Wilder</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Liverpool vs Arsenal</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bengals vs Steelers</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nick Carter</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Northwestern football</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Festivus</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Walmart Christmas Eve hours</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NORAD Santa Tracker</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>George Pickens</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nuggets</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Golden State Warriors</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Easton Stick</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Celtics vs clippers</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>JMU football</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>West Ham vs Man United</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>James madison university</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45284.38547444445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Broncos</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cowboys vs Dolphins</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Seahawks</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Merry Christmas wishes</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Feliz Navidad!</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>It's a Wonderful Life</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A CHRISTMAS STORY</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lakers</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Die Hard</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colts</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Twas the night before Christmas</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Packers vs Panthers</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Christmas story</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Trevor Lawrence</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tua Tagovailoa</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Joe Kelly</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nick Mullens</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Russell Wilson</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cardinals vs Bears</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45285.38547344907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
@@ -17553,201 +18523,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Joshua Tree</t>
+          <t>Chiefs</t>
         </is>
       </c>
       <c r="B2" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Simone Biles</t>
+          <t>Eagles</t>
         </is>
       </c>
       <c r="B3" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rams</t>
+          <t>Celtics</t>
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B5" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pistons</t>
+          <t>The Color Purple</t>
         </is>
       </c>
       <c r="B6" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Iodine</t>
+          <t>Knicks</t>
         </is>
       </c>
       <c r="B7" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Travis Kelce</t>
         </is>
       </c>
       <c r="B8" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yoshinobu Yamamoto</t>
+          <t>Warriors</t>
         </is>
       </c>
       <c r="B9" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vin Diesel</t>
+          <t>Suns</t>
         </is>
       </c>
       <c r="B10" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>President Biden</t>
+          <t>Wordle hint</t>
         </is>
       </c>
       <c r="B11" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Silicon</t>
+          <t>Kc Chiefs</t>
         </is>
       </c>
       <c r="B12" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Zac Efron Iron Claw</t>
+          <t>Christian McCaffrey</t>
         </is>
       </c>
       <c r="B13" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Clippers</t>
+          <t>Kamar de los Reyes</t>
         </is>
       </c>
       <c r="B14" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Syracuse football</t>
+          <t>Marjorie Greene</t>
         </is>
       </c>
       <c r="B15" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rudy Giuliani</t>
+          <t>Mariah Carey</t>
         </is>
       </c>
       <c r="B16" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alavés - Real Madrid</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
       <c r="B17" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dunki</t>
+          <t>Kwanzaa</t>
         </is>
       </c>
       <c r="B18" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nuggets</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="B19" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Salaar</t>
+          <t>Bob Marley</t>
         </is>
       </c>
       <c r="B20" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kentucky basketball</t>
+          <t>Sam Darnold</t>
         </is>
       </c>
       <c r="B21" s="11" t="n">
-        <v>45282.38546305455</v>
+        <v>45286.38546328242</v>
       </c>
     </row>
   </sheetData>
